--- a/data/WestPerth_suburb_properties.xlsx
+++ b/data/WestPerth_suburb_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA\Projects\Project3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haleh\DA\Projects\Project-3\Project3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DCBB91DF-4168-48DC-88AE-2D57F1234133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C51AB7-AC4C-4EBD-B7A6-458E8A7F01A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3120" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="36015" yWindow="-1695" windowWidth="14625" windowHeight="15765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WestPerth_suburb_properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="475">
   <si>
     <t>address</t>
   </si>
@@ -1442,12 +1442,15 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>Villa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
@@ -2287,28 +2290,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="J301" sqref="J301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -4691,7 +4694,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -4927,7 +4930,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -5019,11 +5022,14 @@
       <c r="I75">
         <v>90</v>
       </c>
+      <c r="J75">
+        <v>2005</v>
+      </c>
       <c r="M75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -5048,6 +5054,12 @@
       <c r="H76" s="3">
         <v>2233</v>
       </c>
+      <c r="I76">
+        <v>73</v>
+      </c>
+      <c r="J76">
+        <v>1977</v>
+      </c>
       <c r="K76" t="s">
         <v>88</v>
       </c>
@@ -5055,7 +5067,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -5080,6 +5092,9 @@
       <c r="H77">
         <v>322</v>
       </c>
+      <c r="J77">
+        <v>1920</v>
+      </c>
       <c r="K77" t="s">
         <v>154</v>
       </c>
@@ -5090,7 +5105,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -5112,6 +5127,12 @@
       <c r="G78">
         <v>1</v>
       </c>
+      <c r="I78">
+        <v>42</v>
+      </c>
+      <c r="J78">
+        <v>1968</v>
+      </c>
       <c r="K78" t="s">
         <v>157</v>
       </c>
@@ -5122,7 +5143,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -5157,7 +5178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -5167,12 +5188,27 @@
       <c r="C80" s="2">
         <v>44197</v>
       </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
       <c r="H80" s="3">
         <v>3424</v>
       </c>
       <c r="I80">
         <v>40</v>
       </c>
+      <c r="J80">
+        <v>1970</v>
+      </c>
       <c r="K80" t="s">
         <v>161</v>
       </c>
@@ -5183,7 +5219,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -5193,12 +5229,27 @@
       <c r="C81" s="2">
         <v>44166</v>
       </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
       <c r="H81">
         <v>813</v>
       </c>
       <c r="I81">
         <v>70</v>
       </c>
+      <c r="J81">
+        <v>2008</v>
+      </c>
       <c r="K81" t="s">
         <v>69</v>
       </c>
@@ -5209,7 +5260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -5234,6 +5285,9 @@
       <c r="H82">
         <v>395</v>
       </c>
+      <c r="J82">
+        <v>1930</v>
+      </c>
       <c r="K82" t="s">
         <v>69</v>
       </c>
@@ -5241,7 +5295,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -5269,6 +5323,9 @@
       <c r="I83">
         <v>83</v>
       </c>
+      <c r="J83">
+        <v>2007</v>
+      </c>
       <c r="K83" t="s">
         <v>34</v>
       </c>
@@ -5276,7 +5333,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -5301,6 +5358,12 @@
       <c r="H84">
         <v>56</v>
       </c>
+      <c r="I84">
+        <v>56</v>
+      </c>
+      <c r="J84">
+        <v>1968</v>
+      </c>
       <c r="K84" t="s">
         <v>168</v>
       </c>
@@ -5311,7 +5374,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -5336,11 +5399,14 @@
       <c r="H85" s="3">
         <v>7688</v>
       </c>
+      <c r="J85">
+        <v>1968</v>
+      </c>
       <c r="M85" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -5350,12 +5416,27 @@
       <c r="C86" s="2">
         <v>44166</v>
       </c>
+      <c r="D86" t="s">
+        <v>473</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
       <c r="H86">
         <v>103</v>
       </c>
       <c r="I86">
         <v>69</v>
       </c>
+      <c r="J86">
+        <v>2010</v>
+      </c>
       <c r="K86" t="s">
         <v>171</v>
       </c>
@@ -5363,7 +5444,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -5385,11 +5466,17 @@
       <c r="G87">
         <v>2</v>
       </c>
+      <c r="I87">
+        <v>127</v>
+      </c>
+      <c r="J87">
+        <v>2020</v>
+      </c>
       <c r="M87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -5402,8 +5489,23 @@
       <c r="D88" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>47</v>
+      </c>
+      <c r="J88">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -5413,14 +5515,29 @@
       <c r="C89" s="2">
         <v>44166</v>
       </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
       <c r="H89">
         <v>119</v>
       </c>
       <c r="I89">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>175</v>
       </c>
@@ -5430,12 +5547,27 @@
       <c r="C90" s="2">
         <v>44166</v>
       </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
       <c r="H90">
         <v>115</v>
       </c>
       <c r="I90">
         <v>85</v>
       </c>
+      <c r="J90">
+        <v>1998</v>
+      </c>
       <c r="K90" t="s">
         <v>176</v>
       </c>
@@ -5443,7 +5575,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -5468,6 +5600,9 @@
       <c r="H91">
         <v>402</v>
       </c>
+      <c r="J91">
+        <v>1920</v>
+      </c>
       <c r="K91" t="s">
         <v>88</v>
       </c>
@@ -5478,7 +5613,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -5488,14 +5623,29 @@
       <c r="C92" s="2">
         <v>44166</v>
       </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
       <c r="H92">
         <v>124</v>
       </c>
       <c r="I92">
         <v>75</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -5505,12 +5655,27 @@
       <c r="C93" s="2">
         <v>44166</v>
       </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
       <c r="H93">
         <v>132</v>
       </c>
       <c r="I93">
         <v>41</v>
       </c>
+      <c r="J93">
+        <v>2012</v>
+      </c>
       <c r="K93" t="s">
         <v>69</v>
       </c>
@@ -5518,7 +5683,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -5528,17 +5693,32 @@
       <c r="C94" s="2">
         <v>44166</v>
       </c>
+      <c r="D94" t="s">
+        <v>474</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
       <c r="H94">
+        <v>85</v>
+      </c>
+      <c r="I94">
         <v>82</v>
       </c>
-      <c r="I94">
-        <v>85</v>
+      <c r="J94">
+        <v>1976</v>
       </c>
       <c r="M94" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>183</v>
       </c>
@@ -5548,6 +5728,24 @@
       <c r="C95" s="2">
         <v>44166</v>
       </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>72</v>
+      </c>
+      <c r="J95">
+        <v>1935</v>
+      </c>
       <c r="K95" t="s">
         <v>83</v>
       </c>
@@ -5558,7 +5756,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -5580,6 +5778,12 @@
       <c r="G96">
         <v>1</v>
       </c>
+      <c r="I96">
+        <v>53</v>
+      </c>
+      <c r="J96">
+        <v>2015</v>
+      </c>
       <c r="K96" t="s">
         <v>88</v>
       </c>
@@ -5587,7 +5791,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -5600,11 +5804,23 @@
       <c r="D97" t="s">
         <v>14</v>
       </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
       <c r="H97">
         <v>130</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -5614,9 +5830,27 @@
       <c r="C98" s="2">
         <v>44166</v>
       </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
       <c r="H98" s="3">
         <v>7674</v>
       </c>
+      <c r="I98">
+        <v>46</v>
+      </c>
+      <c r="J98">
+        <v>1968</v>
+      </c>
       <c r="K98" t="s">
         <v>40</v>
       </c>
@@ -5624,7 +5858,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -5662,7 +5896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -5672,11 +5906,26 @@
       <c r="C100" s="2">
         <v>44136</v>
       </c>
+      <c r="D100" t="s">
+        <v>473</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
       <c r="H100" s="3">
         <v>1123</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>191</v>
       </c>
@@ -5701,8 +5950,11 @@
       <c r="H101">
         <v>379</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>192</v>
       </c>
@@ -5727,6 +5979,12 @@
       <c r="H102">
         <v>75</v>
       </c>
+      <c r="I102">
+        <v>58</v>
+      </c>
+      <c r="J102">
+        <v>2018</v>
+      </c>
       <c r="K102" t="s">
         <v>69</v>
       </c>
@@ -5734,7 +5992,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>193</v>
       </c>
@@ -5759,6 +6017,12 @@
       <c r="H103">
         <v>115</v>
       </c>
+      <c r="I103">
+        <v>87</v>
+      </c>
+      <c r="J103">
+        <v>1996</v>
+      </c>
       <c r="K103" t="s">
         <v>194</v>
       </c>
@@ -5766,7 +6030,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>195</v>
       </c>
@@ -5776,9 +6040,27 @@
       <c r="C104" s="2">
         <v>44136</v>
       </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
       <c r="H104" s="3">
         <v>7674</v>
       </c>
+      <c r="I104">
+        <v>47</v>
+      </c>
+      <c r="J104">
+        <v>1968</v>
+      </c>
       <c r="K104" t="s">
         <v>157</v>
       </c>
@@ -5786,7 +6068,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>196</v>
       </c>
@@ -5799,8 +6081,26 @@
       <c r="D105" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>113</v>
+      </c>
+      <c r="I105">
+        <v>77</v>
+      </c>
+      <c r="J105">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>197</v>
       </c>
@@ -5822,6 +6122,15 @@
       <c r="G106">
         <v>1</v>
       </c>
+      <c r="H106">
+        <v>147</v>
+      </c>
+      <c r="I106">
+        <v>106</v>
+      </c>
+      <c r="J106">
+        <v>2002</v>
+      </c>
       <c r="K106" t="s">
         <v>69</v>
       </c>
@@ -5829,7 +6138,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>198</v>
       </c>
@@ -5839,12 +6148,27 @@
       <c r="C107" s="2">
         <v>44136</v>
       </c>
+      <c r="D107" t="s">
+        <v>473</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
       <c r="H107">
         <v>125</v>
       </c>
       <c r="I107">
         <v>80</v>
       </c>
+      <c r="J107">
+        <v>2008</v>
+      </c>
       <c r="K107" t="s">
         <v>46</v>
       </c>
@@ -5852,7 +6176,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>199</v>
       </c>
@@ -5865,8 +6189,26 @@
       <c r="D108" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>121</v>
+      </c>
+      <c r="I108">
+        <v>82</v>
+      </c>
+      <c r="J108">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -5889,7 +6231,13 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>97</v>
+        <v>127</v>
+      </c>
+      <c r="I109">
+        <v>92</v>
+      </c>
+      <c r="J109">
+        <v>2001</v>
       </c>
       <c r="K109" t="s">
         <v>46</v>
@@ -5898,7 +6246,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>201</v>
       </c>
@@ -5908,12 +6256,27 @@
       <c r="C110" s="2">
         <v>44105</v>
       </c>
+      <c r="D110" t="s">
+        <v>473</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
       <c r="H110">
         <v>138</v>
       </c>
       <c r="I110">
         <v>99</v>
       </c>
+      <c r="J110">
+        <v>2011</v>
+      </c>
       <c r="K110" t="s">
         <v>83</v>
       </c>
@@ -5921,7 +6284,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>202</v>
       </c>
@@ -5934,8 +6297,26 @@
       <c r="D111" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>46</v>
+      </c>
+      <c r="I111">
+        <v>46</v>
+      </c>
+      <c r="J111">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -5945,12 +6326,27 @@
       <c r="C112" s="2">
         <v>44105</v>
       </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
       <c r="H112" s="3">
-        <v>3242</v>
+        <v>109</v>
       </c>
       <c r="I112">
         <v>81</v>
       </c>
+      <c r="J112">
+        <v>2006</v>
+      </c>
       <c r="K112" t="s">
         <v>204</v>
       </c>
@@ -5958,7 +6354,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>205</v>
       </c>
@@ -5981,11 +6377,14 @@
         <v>1</v>
       </c>
       <c r="H113" s="3">
-        <v>3365</v>
+        <v>89</v>
       </c>
       <c r="I113">
         <v>56</v>
       </c>
+      <c r="J113">
+        <v>2011</v>
+      </c>
       <c r="K113" t="s">
         <v>206</v>
       </c>
@@ -5993,7 +6392,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>207</v>
       </c>
@@ -6015,8 +6414,17 @@
       <c r="G114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>95</v>
+      </c>
+      <c r="I114">
+        <v>66</v>
+      </c>
+      <c r="J114">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>208</v>
       </c>
@@ -6039,7 +6447,13 @@
         <v>2</v>
       </c>
       <c r="H115">
-        <v>761</v>
+        <v>381</v>
+      </c>
+      <c r="I115">
+        <v>84</v>
+      </c>
+      <c r="J115">
+        <v>1910</v>
       </c>
       <c r="K115" t="s">
         <v>204</v>
@@ -6051,7 +6465,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>210</v>
       </c>
@@ -6061,12 +6475,27 @@
       <c r="C116" s="2">
         <v>44075</v>
       </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
       <c r="H116">
         <v>105</v>
       </c>
       <c r="I116">
         <v>82</v>
       </c>
+      <c r="J116">
+        <v>2003</v>
+      </c>
       <c r="K116" t="s">
         <v>204</v>
       </c>
@@ -6074,7 +6503,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>211</v>
       </c>
@@ -6102,8 +6531,11 @@
       <c r="I117">
         <v>158</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>212</v>
       </c>
@@ -6113,8 +6545,26 @@
       <c r="C118" s="2">
         <v>44075</v>
       </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
       <c r="H118" s="3">
-        <v>1244</v>
+        <v>68</v>
+      </c>
+      <c r="I118">
+        <v>52</v>
+      </c>
+      <c r="J118">
+        <v>2010</v>
       </c>
       <c r="K118" t="s">
         <v>66</v>
@@ -6123,7 +6573,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>213</v>
       </c>
@@ -6146,7 +6596,13 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>921</v>
+        <v>112</v>
+      </c>
+      <c r="I119">
+        <v>53</v>
+      </c>
+      <c r="J119">
+        <v>2006</v>
       </c>
       <c r="K119" t="s">
         <v>57</v>
@@ -6155,7 +6611,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -6165,12 +6621,27 @@
       <c r="C120" s="2">
         <v>44075</v>
       </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>10</v>
+      </c>
       <c r="H120">
         <v>521</v>
       </c>
       <c r="I120">
         <v>147</v>
       </c>
+      <c r="J120">
+        <v>1902</v>
+      </c>
       <c r="K120" t="s">
         <v>215</v>
       </c>
@@ -6178,7 +6649,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>216</v>
       </c>
@@ -6206,11 +6677,14 @@
       <c r="I121">
         <v>95</v>
       </c>
+      <c r="J121">
+        <v>2006</v>
+      </c>
       <c r="M121" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>218</v>
       </c>
@@ -6220,8 +6694,26 @@
       <c r="C122" s="2">
         <v>44044</v>
       </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
       <c r="H122">
-        <v>944</v>
+        <v>92</v>
+      </c>
+      <c r="I122">
+        <v>63</v>
+      </c>
+      <c r="J122">
+        <v>2007</v>
       </c>
       <c r="K122" t="s">
         <v>95</v>
@@ -6230,7 +6722,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>219</v>
       </c>
@@ -6240,6 +6732,27 @@
       <c r="C123" s="2">
         <v>44044</v>
       </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>59</v>
+      </c>
+      <c r="I123">
+        <v>47</v>
+      </c>
+      <c r="J123">
+        <v>1966</v>
+      </c>
       <c r="K123" t="s">
         <v>168</v>
       </c>
@@ -6247,7 +6760,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -6266,6 +6779,18 @@
       <c r="F124">
         <v>1</v>
       </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>35</v>
+      </c>
+      <c r="I124">
+        <v>35</v>
+      </c>
+      <c r="J124">
+        <v>1961</v>
+      </c>
       <c r="K124" t="s">
         <v>221</v>
       </c>
@@ -6276,7 +6801,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>223</v>
       </c>
@@ -6286,12 +6811,27 @@
       <c r="C125" s="2">
         <v>44044</v>
       </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
       <c r="H125">
         <v>111</v>
       </c>
       <c r="I125">
         <v>68</v>
       </c>
+      <c r="J125">
+        <v>2012</v>
+      </c>
       <c r="K125" t="s">
         <v>34</v>
       </c>
@@ -6299,7 +6839,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>224</v>
       </c>
@@ -6309,12 +6849,27 @@
       <c r="C126" s="2">
         <v>44044</v>
       </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
       <c r="H126" s="3">
-        <v>1520</v>
+        <v>56</v>
       </c>
       <c r="I126">
         <v>56</v>
       </c>
+      <c r="J126">
+        <v>1970</v>
+      </c>
       <c r="K126" t="s">
         <v>225</v>
       </c>
@@ -6322,7 +6877,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>226</v>
       </c>
@@ -6345,11 +6900,14 @@
         <v>2</v>
       </c>
       <c r="H127" s="3">
-        <v>4911</v>
+        <v>75</v>
       </c>
       <c r="I127">
         <v>75</v>
       </c>
+      <c r="J127">
+        <v>1967</v>
+      </c>
       <c r="K127" t="s">
         <v>29</v>
       </c>
@@ -6357,7 +6915,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>227</v>
       </c>
@@ -6382,8 +6940,14 @@
       <c r="H128">
         <v>76</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>47</v>
+      </c>
+      <c r="J128">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>228</v>
       </c>
@@ -6393,8 +6957,26 @@
       <c r="C129" s="2">
         <v>44013</v>
       </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
       <c r="H129" s="3">
-        <v>2674</v>
+        <v>82</v>
+      </c>
+      <c r="I129">
+        <v>82</v>
+      </c>
+      <c r="J129">
+        <v>1981</v>
       </c>
       <c r="K129" t="s">
         <v>229</v>
@@ -6403,7 +6985,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>230</v>
       </c>
@@ -6428,6 +7010,12 @@
       <c r="H130">
         <v>138</v>
       </c>
+      <c r="I130">
+        <v>92</v>
+      </c>
+      <c r="J130">
+        <v>2005</v>
+      </c>
       <c r="K130" t="s">
         <v>83</v>
       </c>
@@ -6435,7 +7023,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>231</v>
       </c>
@@ -6458,7 +7046,13 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>622</v>
+        <v>86</v>
+      </c>
+      <c r="I131">
+        <v>64</v>
+      </c>
+      <c r="J131">
+        <v>2003</v>
       </c>
       <c r="K131" t="s">
         <v>124</v>
@@ -6467,7 +7061,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>232</v>
       </c>
@@ -6495,6 +7089,9 @@
       <c r="I132">
         <v>98</v>
       </c>
+      <c r="J132">
+        <v>2003</v>
+      </c>
       <c r="K132" t="s">
         <v>176</v>
       </c>
@@ -6502,7 +7099,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>233</v>
       </c>
@@ -6512,12 +7109,27 @@
       <c r="C133" s="2">
         <v>44013</v>
       </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
       <c r="H133">
         <v>84</v>
       </c>
       <c r="I133">
         <v>51</v>
       </c>
+      <c r="J133">
+        <v>2016</v>
+      </c>
       <c r="K133" t="s">
         <v>88</v>
       </c>
@@ -6525,7 +7137,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>234</v>
       </c>
@@ -6544,14 +7156,20 @@
       <c r="F134">
         <v>1</v>
       </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
       <c r="H134">
         <v>549</v>
       </c>
       <c r="I134">
         <v>154</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>235</v>
       </c>
@@ -6574,10 +7192,13 @@
         <v>2</v>
       </c>
       <c r="H135">
-        <v>746</v>
+        <v>126</v>
       </c>
       <c r="I135">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="J135">
+        <v>2006</v>
       </c>
       <c r="K135" t="s">
         <v>159</v>
@@ -6586,7 +7207,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>236</v>
       </c>
@@ -6599,14 +7220,29 @@
       <c r="D136" t="s">
         <v>17</v>
       </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
       <c r="H136">
         <v>350</v>
       </c>
+      <c r="I136">
+        <v>132</v>
+      </c>
+      <c r="J136">
+        <v>1896</v>
+      </c>
       <c r="M136" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>237</v>
       </c>
@@ -6617,10 +7253,16 @@
         <v>44013</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
       </c>
       <c r="H137">
         <v>150</v>
@@ -6628,8 +7270,11 @@
       <c r="I137">
         <v>98</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>238</v>
       </c>
@@ -6639,11 +7284,26 @@
       <c r="C138" s="2">
         <v>43983</v>
       </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
       <c r="H138">
         <v>122</v>
       </c>
       <c r="I138">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="J138">
+        <v>2010</v>
       </c>
       <c r="K138" t="s">
         <v>46</v>
@@ -6652,7 +7312,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>239</v>
       </c>
@@ -6675,11 +7335,14 @@
         <v>2</v>
       </c>
       <c r="H139" s="3">
-        <v>3242</v>
+        <v>138</v>
       </c>
       <c r="I139">
         <v>98</v>
       </c>
+      <c r="J139">
+        <v>2006</v>
+      </c>
       <c r="K139" t="s">
         <v>46</v>
       </c>
@@ -6687,7 +7350,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>240</v>
       </c>
@@ -6710,11 +7373,14 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>629</v>
+        <v>115</v>
       </c>
       <c r="I140">
         <v>69</v>
       </c>
+      <c r="J140">
+        <v>2004</v>
+      </c>
       <c r="K140" t="s">
         <v>49</v>
       </c>
@@ -6722,7 +7388,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>241</v>
       </c>
@@ -6744,6 +7410,15 @@
       <c r="G141">
         <v>1</v>
       </c>
+      <c r="H141">
+        <v>83</v>
+      </c>
+      <c r="I141">
+        <v>71</v>
+      </c>
+      <c r="J141">
+        <v>1966</v>
+      </c>
       <c r="K141" t="s">
         <v>95</v>
       </c>
@@ -6751,7 +7426,7 @@
         <v>42309</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>242</v>
       </c>
@@ -6761,12 +7436,27 @@
       <c r="C142" s="2">
         <v>43952</v>
       </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
       <c r="H142">
         <v>121</v>
       </c>
       <c r="I142">
         <v>84</v>
       </c>
+      <c r="J142">
+        <v>2008</v>
+      </c>
       <c r="K142" t="s">
         <v>204</v>
       </c>
@@ -6774,7 +7464,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>243</v>
       </c>
@@ -6796,8 +7486,17 @@
       <c r="G143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>91</v>
+      </c>
+      <c r="I143">
+        <v>86</v>
+      </c>
+      <c r="J143">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>244</v>
       </c>
@@ -6807,8 +7506,26 @@
       <c r="C144" s="2">
         <v>43952</v>
       </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
       <c r="H144" s="3">
-        <v>2679</v>
+        <v>82</v>
+      </c>
+      <c r="I144">
+        <v>82</v>
+      </c>
+      <c r="J144">
+        <v>1981</v>
       </c>
       <c r="K144" t="s">
         <v>245</v>
@@ -6817,7 +7534,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>246</v>
       </c>
@@ -6840,7 +7557,13 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>794</v>
+        <v>138</v>
+      </c>
+      <c r="I145">
+        <v>108</v>
+      </c>
+      <c r="J145">
+        <v>1997</v>
       </c>
       <c r="K145" t="s">
         <v>247</v>
@@ -6849,7 +7572,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>248</v>
       </c>
@@ -6872,7 +7595,13 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="I146">
+        <v>47</v>
+      </c>
+      <c r="J146">
+        <v>2018</v>
       </c>
       <c r="K146" t="s">
         <v>144</v>
@@ -6884,7 +7613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>249</v>
       </c>
@@ -6907,7 +7636,13 @@
         <v>2</v>
       </c>
       <c r="H147">
+        <v>233</v>
+      </c>
+      <c r="I147">
         <v>77</v>
+      </c>
+      <c r="J147">
+        <v>2018</v>
       </c>
       <c r="K147" t="s">
         <v>250</v>
@@ -6916,7 +7651,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>251</v>
       </c>
@@ -6938,6 +7673,15 @@
       <c r="G148">
         <v>1</v>
       </c>
+      <c r="H148">
+        <v>75</v>
+      </c>
+      <c r="I148">
+        <v>75</v>
+      </c>
+      <c r="J148">
+        <v>1967</v>
+      </c>
       <c r="K148" t="s">
         <v>252</v>
       </c>
@@ -6945,7 +7689,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>253</v>
       </c>
@@ -6967,6 +7711,15 @@
       <c r="G149">
         <v>1</v>
       </c>
+      <c r="H149">
+        <v>100</v>
+      </c>
+      <c r="I149">
+        <v>73</v>
+      </c>
+      <c r="J149">
+        <v>2000</v>
+      </c>
       <c r="K149" t="s">
         <v>254</v>
       </c>
@@ -6974,7 +7727,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>255</v>
       </c>
@@ -6984,8 +7737,26 @@
       <c r="C150" s="2">
         <v>43891</v>
       </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
       <c r="H150" s="3">
-        <v>2788</v>
+        <v>66</v>
+      </c>
+      <c r="I150">
+        <v>72</v>
+      </c>
+      <c r="J150">
+        <v>1976</v>
       </c>
       <c r="K150" t="s">
         <v>40</v>
@@ -6994,7 +7765,7 @@
         <v>38657</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -7016,6 +7787,15 @@
       <c r="G151">
         <v>1</v>
       </c>
+      <c r="H151">
+        <v>138</v>
+      </c>
+      <c r="I151">
+        <v>108</v>
+      </c>
+      <c r="J151">
+        <v>997</v>
+      </c>
       <c r="K151" t="s">
         <v>204</v>
       </c>
@@ -7023,7 +7803,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>257</v>
       </c>
@@ -7046,7 +7826,13 @@
         <v>1</v>
       </c>
       <c r="H152" s="3">
-        <v>2267</v>
+        <v>80</v>
+      </c>
+      <c r="I152">
+        <v>53</v>
+      </c>
+      <c r="J152">
+        <v>2005</v>
       </c>
       <c r="K152" t="s">
         <v>258</v>
@@ -7055,7 +7841,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>259</v>
       </c>
@@ -7078,11 +7864,14 @@
         <v>1</v>
       </c>
       <c r="H153" s="3">
-        <v>1876</v>
+        <v>100</v>
       </c>
       <c r="I153">
         <v>69</v>
       </c>
+      <c r="J153">
+        <v>2007</v>
+      </c>
       <c r="K153" t="s">
         <v>95</v>
       </c>
@@ -7090,7 +7879,7 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>260</v>
       </c>
@@ -7100,12 +7889,27 @@
       <c r="C154" s="2">
         <v>43891</v>
       </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
       <c r="H154">
         <v>158</v>
       </c>
       <c r="I154">
         <v>108</v>
       </c>
+      <c r="J154">
+        <v>2007</v>
+      </c>
       <c r="K154" t="s">
         <v>135</v>
       </c>
@@ -7113,7 +7917,7 @@
         <v>39630</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>261</v>
       </c>
@@ -7123,14 +7927,29 @@
       <c r="C155" s="2">
         <v>43891</v>
       </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
       <c r="H155">
-        <v>813</v>
+        <v>87</v>
       </c>
       <c r="I155">
         <v>87</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>262</v>
       </c>
@@ -7140,14 +7959,29 @@
       <c r="C156" s="2">
         <v>43891</v>
       </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
       <c r="H156">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="I156">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J156">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>263</v>
       </c>
@@ -7157,12 +7991,27 @@
       <c r="C157" s="2">
         <v>43891</v>
       </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
       <c r="H157">
         <v>174</v>
       </c>
       <c r="I157">
         <v>135</v>
       </c>
+      <c r="J157">
+        <v>1997</v>
+      </c>
       <c r="K157" t="s">
         <v>69</v>
       </c>
@@ -7170,7 +8019,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>264</v>
       </c>
@@ -7198,6 +8047,9 @@
       <c r="I158">
         <v>70</v>
       </c>
+      <c r="J158">
+        <v>2010</v>
+      </c>
       <c r="K158" t="s">
         <v>29</v>
       </c>
@@ -7205,7 +8057,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>265</v>
       </c>
@@ -7228,11 +8080,14 @@
         <v>1</v>
       </c>
       <c r="H159" s="3">
-        <v>3422</v>
+        <v>42</v>
       </c>
       <c r="I159">
         <v>40</v>
       </c>
+      <c r="J159">
+        <v>1970</v>
+      </c>
       <c r="K159" t="s">
         <v>157</v>
       </c>
@@ -7240,7 +8095,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>266</v>
       </c>
@@ -7262,8 +8117,17 @@
       <c r="G160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>147</v>
+      </c>
+      <c r="I160">
+        <v>89</v>
+      </c>
+      <c r="J160">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>267</v>
       </c>
@@ -7273,8 +8137,26 @@
       <c r="C161" s="2">
         <v>43891</v>
       </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
       <c r="H161">
-        <v>622</v>
+        <v>78</v>
+      </c>
+      <c r="I161">
+        <v>58</v>
+      </c>
+      <c r="J161">
+        <v>2003</v>
       </c>
       <c r="K161" t="s">
         <v>132</v>
@@ -7283,7 +8165,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -7296,11 +8178,26 @@
       <c r="D162" t="s">
         <v>14</v>
       </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
       <c r="H162">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I162">
+        <v>70</v>
+      </c>
+      <c r="J162">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>269</v>
       </c>
@@ -7310,11 +8207,26 @@
       <c r="C163" s="2">
         <v>43862</v>
       </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
       <c r="H163" s="3">
-        <v>1876</v>
+        <v>96</v>
       </c>
       <c r="I163">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="J163">
+        <v>2007</v>
       </c>
       <c r="K163" t="s">
         <v>29</v>
@@ -7323,7 +8235,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>270</v>
       </c>
@@ -7345,8 +8257,17 @@
       <c r="G164">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>295</v>
+      </c>
+      <c r="I164">
+        <v>183</v>
+      </c>
+      <c r="J164">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>271</v>
       </c>
@@ -7369,10 +8290,13 @@
         <v>2</v>
       </c>
       <c r="H165">
-        <v>732</v>
+        <v>315</v>
       </c>
       <c r="I165">
-        <v>279</v>
+        <v>139</v>
+      </c>
+      <c r="J165">
+        <v>2012</v>
       </c>
       <c r="K165" t="s">
         <v>16</v>
@@ -7381,7 +8305,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>272</v>
       </c>
@@ -7404,7 +8328,13 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="I166">
+        <v>70</v>
+      </c>
+      <c r="J166">
+        <v>2018</v>
       </c>
       <c r="K166" t="s">
         <v>159</v>
@@ -7413,7 +8343,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>273</v>
       </c>
@@ -7423,14 +8353,29 @@
       <c r="C167" s="2">
         <v>43831</v>
       </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
       <c r="H167">
         <v>102</v>
       </c>
       <c r="I167">
         <v>75</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>274</v>
       </c>
@@ -7453,10 +8398,16 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I168">
+        <v>70</v>
+      </c>
+      <c r="J168">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>275</v>
       </c>
@@ -7466,14 +8417,29 @@
       <c r="C169" s="2">
         <v>43831</v>
       </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
       <c r="H169">
         <v>104</v>
       </c>
       <c r="I169">
         <v>58</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J169">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>276</v>
       </c>
@@ -7496,13 +8462,16 @@
         <v>1</v>
       </c>
       <c r="H170" s="3">
-        <v>1447</v>
+        <v>122</v>
       </c>
       <c r="I170">
         <v>82</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>277</v>
       </c>
@@ -7515,11 +8484,26 @@
       <c r="D171" t="s">
         <v>14</v>
       </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
       <c r="H171">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I171">
+        <v>70</v>
+      </c>
+      <c r="J171">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>278</v>
       </c>
@@ -7529,12 +8513,27 @@
       <c r="C172" s="2">
         <v>43800</v>
       </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
+      </c>
       <c r="H172">
         <v>151</v>
       </c>
       <c r="I172">
         <v>100</v>
       </c>
+      <c r="J172">
+        <v>2004</v>
+      </c>
       <c r="K172" t="s">
         <v>279</v>
       </c>
@@ -7542,7 +8541,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>280</v>
       </c>
@@ -7552,12 +8551,27 @@
       <c r="C173" s="2">
         <v>43800</v>
       </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
       <c r="H173">
         <v>131</v>
       </c>
       <c r="I173">
         <v>65</v>
       </c>
+      <c r="J173">
+        <v>2011</v>
+      </c>
       <c r="K173" t="s">
         <v>83</v>
       </c>
@@ -7565,7 +8579,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>281</v>
       </c>
@@ -7587,6 +8601,15 @@
       <c r="G174">
         <v>2</v>
       </c>
+      <c r="H174">
+        <v>147</v>
+      </c>
+      <c r="I174">
+        <v>101</v>
+      </c>
+      <c r="J174">
+        <v>2004</v>
+      </c>
       <c r="K174" t="s">
         <v>46</v>
       </c>
@@ -7594,7 +8617,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -7616,6 +8639,15 @@
       <c r="G175">
         <v>2</v>
       </c>
+      <c r="H175">
+        <v>232</v>
+      </c>
+      <c r="I175">
+        <v>110</v>
+      </c>
+      <c r="J175">
+        <v>1998</v>
+      </c>
       <c r="K175" t="s">
         <v>283</v>
       </c>
@@ -7623,7 +8655,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>284</v>
       </c>
@@ -7636,8 +8668,23 @@
       <c r="D176" t="s">
         <v>14</v>
       </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
       <c r="H176">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="I176">
+        <v>47</v>
+      </c>
+      <c r="J176">
+        <v>2018</v>
       </c>
       <c r="K176" t="s">
         <v>49</v>
@@ -7646,7 +8693,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>285</v>
       </c>
@@ -7656,11 +8703,26 @@
       <c r="C177" s="2">
         <v>43800</v>
       </c>
+      <c r="D177" t="s">
+        <v>473</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
       <c r="H177">
         <v>187</v>
       </c>
       <c r="I177">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="J177">
+        <v>1985</v>
       </c>
       <c r="K177" t="s">
         <v>13</v>
@@ -7669,7 +8731,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>286</v>
       </c>
@@ -7686,13 +8748,19 @@
         <v>3</v>
       </c>
       <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I178">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="J178">
+        <v>1920</v>
       </c>
       <c r="K178" t="s">
         <v>221</v>
@@ -7701,7 +8769,7 @@
         <v>38626</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>287</v>
       </c>
@@ -7720,9 +8788,18 @@
       <c r="F179">
         <v>1</v>
       </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
       <c r="H179">
         <v>225</v>
       </c>
+      <c r="I179">
+        <v>94</v>
+      </c>
+      <c r="J179">
+        <v>1910</v>
+      </c>
       <c r="K179" t="s">
         <v>88</v>
       </c>
@@ -7730,7 +8807,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>288</v>
       </c>
@@ -7756,7 +8833,10 @@
         <v>78</v>
       </c>
       <c r="I180">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="J180">
+        <v>2001</v>
       </c>
       <c r="K180" t="s">
         <v>88</v>
@@ -7765,7 +8845,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>289</v>
       </c>
@@ -7787,8 +8867,17 @@
       <c r="G181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>999</v>
+      </c>
+      <c r="I181">
+        <v>89</v>
+      </c>
+      <c r="J181">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>290</v>
       </c>
@@ -7810,8 +8899,17 @@
       <c r="G182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>118</v>
+      </c>
+      <c r="I182">
+        <v>118</v>
+      </c>
+      <c r="J182">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>291</v>
       </c>
@@ -7821,12 +8919,27 @@
       <c r="C183" s="2">
         <v>43770</v>
       </c>
+      <c r="D183" t="s">
+        <v>473</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>2</v>
+      </c>
       <c r="H183">
         <v>105</v>
       </c>
       <c r="I183">
         <v>55</v>
       </c>
+      <c r="J183">
+        <v>2011</v>
+      </c>
       <c r="K183" t="s">
         <v>13</v>
       </c>
@@ -7834,7 +8947,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>292</v>
       </c>
@@ -7862,6 +8975,9 @@
       <c r="I184">
         <v>71</v>
       </c>
+      <c r="J184">
+        <v>2011</v>
+      </c>
       <c r="K184" t="s">
         <v>144</v>
       </c>
@@ -7869,7 +8985,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>293</v>
       </c>
@@ -7879,12 +8995,27 @@
       <c r="C185" s="2">
         <v>43770</v>
       </c>
+      <c r="D185" t="s">
+        <v>473</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
       <c r="H185" s="3">
-        <v>4911</v>
+        <v>75</v>
       </c>
       <c r="I185">
         <v>75</v>
       </c>
+      <c r="J185">
+        <v>1967</v>
+      </c>
       <c r="K185" t="s">
         <v>221</v>
       </c>
@@ -7892,7 +9023,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>294</v>
       </c>
@@ -7920,6 +9051,9 @@
       <c r="I186">
         <v>68</v>
       </c>
+      <c r="J186">
+        <v>1968</v>
+      </c>
       <c r="K186" t="s">
         <v>13</v>
       </c>
@@ -7927,7 +9061,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>295</v>
       </c>
@@ -7955,6 +9089,9 @@
       <c r="I187">
         <v>158</v>
       </c>
+      <c r="J187">
+        <v>1982</v>
+      </c>
       <c r="K187" t="s">
         <v>296</v>
       </c>
@@ -7965,7 +9102,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>298</v>
       </c>
@@ -7984,14 +9121,20 @@
       <c r="F188">
         <v>1</v>
       </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
       <c r="H188">
         <v>216</v>
       </c>
       <c r="I188">
         <v>108</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>299</v>
       </c>
@@ -8016,6 +9159,12 @@
       <c r="H189">
         <v>225</v>
       </c>
+      <c r="I189">
+        <v>80</v>
+      </c>
+      <c r="J189">
+        <v>1910</v>
+      </c>
       <c r="K189" t="s">
         <v>88</v>
       </c>
@@ -8026,7 +9175,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>301</v>
       </c>
@@ -8054,11 +9203,14 @@
       <c r="I190">
         <v>82</v>
       </c>
+      <c r="J190">
+        <v>2010</v>
+      </c>
       <c r="M190" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>303</v>
       </c>
@@ -8086,6 +9238,9 @@
       <c r="I191">
         <v>84</v>
       </c>
+      <c r="J191">
+        <v>2005</v>
+      </c>
       <c r="K191" t="s">
         <v>46</v>
       </c>
@@ -8093,7 +9248,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>304</v>
       </c>
@@ -8103,11 +9258,29 @@
       <c r="C192" s="2">
         <v>43709</v>
       </c>
+      <c r="D192" t="s">
+        <v>473</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
       <c r="H192" s="3">
-        <v>6268</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I192">
+        <v>49</v>
+      </c>
+      <c r="J192">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>305</v>
       </c>
@@ -8135,6 +9308,9 @@
       <c r="I193">
         <v>98</v>
       </c>
+      <c r="J193">
+        <v>2004</v>
+      </c>
       <c r="K193" t="s">
         <v>306</v>
       </c>
@@ -8145,7 +9321,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>307</v>
       </c>
@@ -8170,6 +9346,12 @@
       <c r="H194" s="3">
         <v>3422</v>
       </c>
+      <c r="I194">
+        <v>40</v>
+      </c>
+      <c r="J194">
+        <v>1970</v>
+      </c>
       <c r="K194" t="s">
         <v>308</v>
       </c>
@@ -8180,7 +9362,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>310</v>
       </c>
@@ -8203,11 +9385,14 @@
         <v>2</v>
       </c>
       <c r="H195">
-        <v>746</v>
+        <v>193</v>
       </c>
       <c r="I195">
         <v>102</v>
       </c>
+      <c r="J195">
+        <v>2006</v>
+      </c>
       <c r="K195" t="s">
         <v>311</v>
       </c>
@@ -8215,7 +9400,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>312</v>
       </c>
@@ -8237,6 +9422,15 @@
       <c r="G196">
         <v>1</v>
       </c>
+      <c r="H196" s="3">
+        <v>198</v>
+      </c>
+      <c r="I196">
+        <v>101</v>
+      </c>
+      <c r="J196">
+        <v>1998</v>
+      </c>
       <c r="K196" t="s">
         <v>118</v>
       </c>
@@ -8247,7 +9441,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>314</v>
       </c>
@@ -8269,11 +9463,20 @@
       <c r="G197">
         <v>1</v>
       </c>
+      <c r="H197">
+        <v>80</v>
+      </c>
+      <c r="I197">
+        <v>48</v>
+      </c>
+      <c r="J197">
+        <v>2018</v>
+      </c>
       <c r="M197" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>316</v>
       </c>
@@ -8283,14 +9486,29 @@
       <c r="C198" s="2">
         <v>43709</v>
       </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
       <c r="H198">
-        <v>675</v>
+        <v>96</v>
       </c>
       <c r="I198">
         <v>67</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J198">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>317</v>
       </c>
@@ -8315,11 +9533,17 @@
       <c r="H199" s="3">
         <v>1012</v>
       </c>
+      <c r="I199">
+        <v>109</v>
+      </c>
+      <c r="J199">
+        <v>2005</v>
+      </c>
       <c r="M199" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>319</v>
       </c>
@@ -8341,6 +9565,15 @@
       <c r="G200">
         <v>1</v>
       </c>
+      <c r="H200">
+        <v>117</v>
+      </c>
+      <c r="I200">
+        <v>87</v>
+      </c>
+      <c r="J200">
+        <v>1998</v>
+      </c>
       <c r="K200" t="s">
         <v>95</v>
       </c>
@@ -8351,7 +9584,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>320</v>
       </c>
@@ -8361,8 +9594,29 @@
       <c r="C201" s="2">
         <v>43709</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>34</v>
+      </c>
+      <c r="I201">
+        <v>34</v>
+      </c>
+      <c r="J201">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>321</v>
       </c>
@@ -8385,10 +9639,16 @@
         <v>3</v>
       </c>
       <c r="H202">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="I202">
+        <v>119</v>
+      </c>
+      <c r="J202">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>322</v>
       </c>
@@ -8398,11 +9658,26 @@
       <c r="C203" s="2">
         <v>43678</v>
       </c>
+      <c r="D203" t="s">
+        <v>473</v>
+      </c>
+      <c r="E203">
+        <v>3</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
       <c r="H203" s="3">
-        <v>1577</v>
+        <v>101</v>
       </c>
       <c r="I203">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="J203">
+        <v>1995</v>
       </c>
       <c r="K203" t="s">
         <v>88</v>
@@ -8414,7 +9689,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>324</v>
       </c>
@@ -8436,11 +9711,20 @@
       <c r="G204">
         <v>2</v>
       </c>
+      <c r="H204">
+        <v>145</v>
+      </c>
+      <c r="I204">
+        <v>100</v>
+      </c>
+      <c r="J204">
+        <v>2000</v>
+      </c>
       <c r="M204" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>326</v>
       </c>
@@ -8463,16 +9747,19 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I205">
-        <v>126</v>
+        <v>75</v>
+      </c>
+      <c r="J205">
+        <v>2018</v>
       </c>
       <c r="M205" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>328</v>
       </c>
@@ -8495,7 +9782,13 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="I206">
+        <v>70</v>
+      </c>
+      <c r="J206">
+        <v>2017</v>
       </c>
       <c r="K206" t="s">
         <v>247</v>
@@ -8507,7 +9800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>329</v>
       </c>
@@ -8530,16 +9823,19 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I207">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="J207">
+        <v>2017</v>
       </c>
       <c r="M207" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>330</v>
       </c>
@@ -8559,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208">
         <v>187</v>
@@ -8567,6 +9863,9 @@
       <c r="I208">
         <v>120</v>
       </c>
+      <c r="J208">
+        <v>1994</v>
+      </c>
       <c r="K208" t="s">
         <v>118</v>
       </c>
@@ -8577,7 +9876,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>332</v>
       </c>
@@ -8600,7 +9899,13 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>902</v>
+        <v>99</v>
+      </c>
+      <c r="I209">
+        <v>73</v>
+      </c>
+      <c r="J209">
+        <v>1990</v>
       </c>
       <c r="K209" t="s">
         <v>83</v>
@@ -8612,7 +9917,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>333</v>
       </c>
@@ -8635,11 +9940,14 @@
         <v>1</v>
       </c>
       <c r="H210" s="3">
-        <v>3242</v>
+        <v>78</v>
       </c>
       <c r="I210">
         <v>54</v>
       </c>
+      <c r="J210">
+        <v>2006</v>
+      </c>
       <c r="K210" t="s">
         <v>29</v>
       </c>
@@ -8650,7 +9958,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>334</v>
       </c>
@@ -8673,13 +9981,19 @@
         <v>1</v>
       </c>
       <c r="H211" s="3">
-        <v>2253</v>
+        <v>114</v>
+      </c>
+      <c r="I211">
+        <v>88</v>
+      </c>
+      <c r="J211">
+        <v>2001</v>
       </c>
       <c r="M211" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>335</v>
       </c>
@@ -8707,6 +10021,9 @@
       <c r="I212">
         <v>82</v>
       </c>
+      <c r="J212">
+        <v>2003</v>
+      </c>
       <c r="K212" t="s">
         <v>194</v>
       </c>
@@ -8717,7 +10034,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>337</v>
       </c>
@@ -8739,6 +10056,15 @@
       <c r="G213">
         <v>1</v>
       </c>
+      <c r="H213">
+        <v>128</v>
+      </c>
+      <c r="I213">
+        <v>87</v>
+      </c>
+      <c r="J213">
+        <v>1998</v>
+      </c>
       <c r="K213" t="s">
         <v>338</v>
       </c>
@@ -8749,7 +10075,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>340</v>
       </c>
@@ -8759,6 +10085,27 @@
       <c r="C214" s="2">
         <v>43617</v>
       </c>
+      <c r="D214" t="s">
+        <v>473</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>44</v>
+      </c>
+      <c r="I214">
+        <v>44</v>
+      </c>
+      <c r="J214">
+        <v>1968</v>
+      </c>
       <c r="K214" t="s">
         <v>341</v>
       </c>
@@ -8769,7 +10116,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>343</v>
       </c>
@@ -8792,11 +10139,14 @@
         <v>1</v>
       </c>
       <c r="H215" s="3">
-        <v>6092</v>
+        <v>150</v>
       </c>
       <c r="I215">
         <v>85</v>
       </c>
+      <c r="J215">
+        <v>2007</v>
+      </c>
       <c r="K215" t="s">
         <v>69</v>
       </c>
@@ -8807,7 +10157,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>344</v>
       </c>
@@ -8829,6 +10179,15 @@
       <c r="G216">
         <v>1</v>
       </c>
+      <c r="H216">
+        <v>139</v>
+      </c>
+      <c r="I216">
+        <v>79</v>
+      </c>
+      <c r="J216">
+        <v>2001</v>
+      </c>
       <c r="K216" t="s">
         <v>95</v>
       </c>
@@ -8839,7 +10198,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>346</v>
       </c>
@@ -8861,6 +10220,15 @@
       <c r="G217">
         <v>1</v>
       </c>
+      <c r="H217">
+        <v>132</v>
+      </c>
+      <c r="I217">
+        <v>100</v>
+      </c>
+      <c r="J217">
+        <v>2003</v>
+      </c>
       <c r="K217" t="s">
         <v>69</v>
       </c>
@@ -8871,7 +10239,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>348</v>
       </c>
@@ -8897,7 +10265,10 @@
         <v>128</v>
       </c>
       <c r="I218">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="J218">
+        <v>2002</v>
       </c>
       <c r="K218" t="s">
         <v>176</v>
@@ -8909,7 +10280,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>350</v>
       </c>
@@ -8919,12 +10290,27 @@
       <c r="C219" s="2">
         <v>43617</v>
       </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="F219">
+        <v>3</v>
+      </c>
+      <c r="G219">
+        <v>2</v>
+      </c>
       <c r="H219">
         <v>168</v>
       </c>
       <c r="I219">
         <v>101</v>
       </c>
+      <c r="J219">
+        <v>2004</v>
+      </c>
       <c r="K219" t="s">
         <v>112</v>
       </c>
@@ -8932,7 +10318,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>351</v>
       </c>
@@ -8955,16 +10341,19 @@
         <v>1</v>
       </c>
       <c r="H220" s="3">
-        <v>2292</v>
+        <v>101</v>
       </c>
       <c r="I220">
-        <v>84</v>
+        <v>68</v>
+      </c>
+      <c r="J220">
+        <v>1968</v>
       </c>
       <c r="M220" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>352</v>
       </c>
@@ -8974,14 +10363,29 @@
       <c r="C221" s="2">
         <v>43586</v>
       </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221">
+        <v>3</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
       <c r="H221">
         <v>193</v>
       </c>
       <c r="I221">
         <v>200</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J221">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>353</v>
       </c>
@@ -9003,11 +10407,20 @@
       <c r="G222">
         <v>1</v>
       </c>
+      <c r="H222">
+        <v>47</v>
+      </c>
+      <c r="I222">
+        <v>94</v>
+      </c>
+      <c r="J222">
+        <v>1960</v>
+      </c>
       <c r="M222" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>354</v>
       </c>
@@ -9017,6 +10430,27 @@
       <c r="C223" s="2">
         <v>43586</v>
       </c>
+      <c r="D223" t="s">
+        <v>473</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>64</v>
+      </c>
+      <c r="I223">
+        <v>67</v>
+      </c>
+      <c r="J223">
+        <v>1982</v>
+      </c>
       <c r="K223" t="s">
         <v>355</v>
       </c>
@@ -9027,7 +10461,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>357</v>
       </c>
@@ -9049,11 +10483,20 @@
       <c r="G224">
         <v>1</v>
       </c>
+      <c r="H224">
+        <v>75</v>
+      </c>
+      <c r="I224">
+        <v>47</v>
+      </c>
+      <c r="J224">
+        <v>2018</v>
+      </c>
       <c r="M224" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>359</v>
       </c>
@@ -9075,6 +10518,15 @@
       <c r="G225">
         <v>1</v>
       </c>
+      <c r="H225">
+        <v>102</v>
+      </c>
+      <c r="I225">
+        <v>70</v>
+      </c>
+      <c r="J225">
+        <v>2017</v>
+      </c>
       <c r="K225" t="s">
         <v>360</v>
       </c>
@@ -9085,7 +10537,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>361</v>
       </c>
@@ -9107,11 +10559,20 @@
       <c r="G226">
         <v>1</v>
       </c>
+      <c r="H226">
+        <v>75</v>
+      </c>
+      <c r="I226">
+        <v>75</v>
+      </c>
+      <c r="J226">
+        <v>1967</v>
+      </c>
       <c r="M226" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>362</v>
       </c>
@@ -9139,6 +10600,9 @@
       <c r="I227">
         <v>53</v>
       </c>
+      <c r="J227">
+        <v>2006</v>
+      </c>
       <c r="K227" t="s">
         <v>88</v>
       </c>
@@ -9149,7 +10613,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>364</v>
       </c>
@@ -9174,6 +10638,9 @@
       <c r="H228">
         <v>98</v>
       </c>
+      <c r="J228">
+        <v>1998</v>
+      </c>
       <c r="K228" t="s">
         <v>204</v>
       </c>
@@ -9184,7 +10651,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>366</v>
       </c>
@@ -9209,11 +10676,20 @@
       <c r="H229">
         <v>78</v>
       </c>
+      <c r="I229">
+        <v>75</v>
+      </c>
+      <c r="J229">
+        <v>47</v>
+      </c>
+      <c r="K229">
+        <v>2018</v>
+      </c>
       <c r="M229" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>367</v>
       </c>
@@ -9235,11 +10711,20 @@
       <c r="G230">
         <v>1</v>
       </c>
+      <c r="H230">
+        <v>113</v>
+      </c>
+      <c r="I230">
+        <v>74</v>
+      </c>
+      <c r="J230">
+        <v>2018</v>
+      </c>
       <c r="M230" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>368</v>
       </c>
@@ -9249,8 +10734,26 @@
       <c r="C231" s="2">
         <v>43556</v>
       </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
       <c r="H231" s="3">
-        <v>6268</v>
+        <v>67</v>
+      </c>
+      <c r="I231">
+        <v>67</v>
+      </c>
+      <c r="J231">
+        <v>1978</v>
       </c>
       <c r="K231" t="s">
         <v>369</v>
@@ -9262,7 +10765,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>370</v>
       </c>
@@ -9288,7 +10791,10 @@
         <v>316</v>
       </c>
       <c r="I232">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="J232">
+        <v>2010</v>
       </c>
       <c r="K232" t="s">
         <v>371</v>
@@ -9300,7 +10806,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>373</v>
       </c>
@@ -9323,13 +10829,19 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="I233">
+        <v>47</v>
+      </c>
+      <c r="J233">
+        <v>2017</v>
       </c>
       <c r="M233" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>374</v>
       </c>
@@ -9352,11 +10864,14 @@
         <v>1</v>
       </c>
       <c r="H234" s="3">
-        <v>3242</v>
+        <v>131</v>
       </c>
       <c r="I234">
         <v>77</v>
       </c>
+      <c r="J234">
+        <v>2006</v>
+      </c>
       <c r="K234" t="s">
         <v>204</v>
       </c>
@@ -9367,7 +10882,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>376</v>
       </c>
@@ -9395,11 +10910,14 @@
       <c r="I235">
         <v>85</v>
       </c>
+      <c r="J235">
+        <v>1994</v>
+      </c>
       <c r="M235" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>377</v>
       </c>
@@ -9422,13 +10940,19 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>80</v>
+        <v>113</v>
+      </c>
+      <c r="I236">
+        <v>79</v>
+      </c>
+      <c r="J236">
+        <v>2018</v>
       </c>
       <c r="M236" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>378</v>
       </c>
@@ -9451,7 +10975,13 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>792</v>
+        <v>99</v>
+      </c>
+      <c r="I237">
+        <v>79</v>
+      </c>
+      <c r="J237">
+        <v>2001</v>
       </c>
       <c r="K237" t="s">
         <v>95</v>
@@ -9460,7 +10990,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>379</v>
       </c>
@@ -9470,6 +11000,27 @@
       <c r="C238" s="2">
         <v>43525</v>
       </c>
+      <c r="D238" t="s">
+        <v>14</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>33</v>
+      </c>
+      <c r="I238">
+        <v>33</v>
+      </c>
+      <c r="J238">
+        <v>1945</v>
+      </c>
       <c r="K238" t="s">
         <v>62</v>
       </c>
@@ -9477,7 +11028,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>380</v>
       </c>
@@ -9505,6 +11056,9 @@
       <c r="I239">
         <v>57</v>
       </c>
+      <c r="J239">
+        <v>2011</v>
+      </c>
       <c r="K239" t="s">
         <v>83</v>
       </c>
@@ -9512,7 +11066,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>381</v>
       </c>
@@ -9540,8 +11094,11 @@
       <c r="I240">
         <v>81</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J240">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>382</v>
       </c>
@@ -9564,7 +11121,13 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="I241">
+        <v>47</v>
+      </c>
+      <c r="J241">
+        <v>2017</v>
       </c>
       <c r="K241" t="s">
         <v>69</v>
@@ -9576,7 +11139,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>383</v>
       </c>
@@ -9599,7 +11162,13 @@
         <v>1</v>
       </c>
       <c r="H242" s="3">
-        <v>2189</v>
+        <v>1005</v>
+      </c>
+      <c r="I242">
+        <v>84</v>
+      </c>
+      <c r="J242">
+        <v>2011</v>
       </c>
       <c r="K242" t="s">
         <v>44</v>
@@ -9611,7 +11180,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>384</v>
       </c>
@@ -9637,13 +11206,16 @@
         <v>206</v>
       </c>
       <c r="I243">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="J243">
+        <v>1992</v>
       </c>
       <c r="M243" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>385</v>
       </c>
@@ -9671,6 +11243,9 @@
       <c r="I244">
         <v>296</v>
       </c>
+      <c r="J244">
+        <v>2003</v>
+      </c>
       <c r="K244" t="s">
         <v>386</v>
       </c>
@@ -9678,7 +11253,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>387</v>
       </c>
@@ -9688,6 +11263,27 @@
       <c r="C245" s="2">
         <v>43497</v>
       </c>
+      <c r="D245" t="s">
+        <v>473</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>37</v>
+      </c>
+      <c r="I245">
+        <v>37</v>
+      </c>
+      <c r="J245">
+        <v>1945</v>
+      </c>
       <c r="K245" t="s">
         <v>62</v>
       </c>
@@ -9698,7 +11294,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>389</v>
       </c>
@@ -9720,6 +11316,15 @@
       <c r="G246">
         <v>1</v>
       </c>
+      <c r="H246">
+        <v>115</v>
+      </c>
+      <c r="I246">
+        <v>87</v>
+      </c>
+      <c r="J246">
+        <v>1998</v>
+      </c>
       <c r="K246" t="s">
         <v>46</v>
       </c>
@@ -9730,7 +11335,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>390</v>
       </c>
@@ -9758,11 +11363,14 @@
       <c r="I247">
         <v>77</v>
       </c>
+      <c r="J247">
+        <v>2018</v>
+      </c>
       <c r="M247" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>391</v>
       </c>
@@ -9785,11 +11393,14 @@
         <v>2</v>
       </c>
       <c r="H248" s="3">
-        <v>2304</v>
+        <v>129</v>
       </c>
       <c r="I248">
         <v>95</v>
       </c>
+      <c r="J248">
+        <v>1966</v>
+      </c>
       <c r="K248" t="s">
         <v>110</v>
       </c>
@@ -9800,7 +11411,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>392</v>
       </c>
@@ -9810,8 +11421,29 @@
       <c r="C249" s="2">
         <v>43497</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249">
+        <v>4</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+      <c r="G249">
+        <v>2</v>
+      </c>
+      <c r="H249">
+        <v>397</v>
+      </c>
+      <c r="I249">
+        <v>232</v>
+      </c>
+      <c r="J249">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>393</v>
       </c>
@@ -9839,6 +11471,9 @@
       <c r="I250">
         <v>97</v>
       </c>
+      <c r="J250">
+        <v>2001</v>
+      </c>
       <c r="K250" t="s">
         <v>46</v>
       </c>
@@ -9849,7 +11484,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>394</v>
       </c>
@@ -9871,11 +11506,20 @@
       <c r="G251">
         <v>1</v>
       </c>
+      <c r="H251">
+        <v>116</v>
+      </c>
+      <c r="I251">
+        <v>77</v>
+      </c>
+      <c r="J251">
+        <v>2018</v>
+      </c>
       <c r="M251" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>395</v>
       </c>
@@ -9897,6 +11541,15 @@
       <c r="G252">
         <v>1</v>
       </c>
+      <c r="H252">
+        <v>102</v>
+      </c>
+      <c r="I252">
+        <v>72</v>
+      </c>
+      <c r="J252">
+        <v>2018</v>
+      </c>
       <c r="K252" t="s">
         <v>396</v>
       </c>
@@ -9907,7 +11560,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>397</v>
       </c>
@@ -9929,6 +11582,15 @@
       <c r="G253">
         <v>1</v>
       </c>
+      <c r="H253">
+        <v>102</v>
+      </c>
+      <c r="I253">
+        <v>70</v>
+      </c>
+      <c r="J253">
+        <v>2018</v>
+      </c>
       <c r="K253" t="s">
         <v>283</v>
       </c>
@@ -9939,7 +11601,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>398</v>
       </c>
@@ -9949,14 +11611,29 @@
       <c r="C254" s="2">
         <v>43497</v>
       </c>
+      <c r="D254" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254">
+        <v>4</v>
+      </c>
+      <c r="F254">
+        <v>3</v>
+      </c>
+      <c r="G254">
+        <v>2</v>
+      </c>
       <c r="H254">
         <v>200</v>
       </c>
       <c r="I254">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="J254">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>399</v>
       </c>
@@ -9966,11 +11643,26 @@
       <c r="C255" s="2">
         <v>43466</v>
       </c>
+      <c r="D255" t="s">
+        <v>14</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
       <c r="H255">
-        <v>930</v>
+        <v>101</v>
       </c>
       <c r="I255">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="J255">
+        <v>2005</v>
       </c>
       <c r="K255" t="s">
         <v>400</v>
@@ -9979,7 +11671,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>401</v>
       </c>
@@ -10002,7 +11694,13 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>94</v>
+        <v>122</v>
+      </c>
+      <c r="I256">
+        <v>74</v>
+      </c>
+      <c r="J256">
+        <v>2008</v>
       </c>
       <c r="K256" t="s">
         <v>66</v>
@@ -10014,7 +11712,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>403</v>
       </c>
@@ -10037,11 +11735,14 @@
         <v>2</v>
       </c>
       <c r="H257" s="3">
-        <v>1780</v>
+        <v>124</v>
       </c>
       <c r="I257">
         <v>75</v>
       </c>
+      <c r="J257">
+        <v>2010</v>
+      </c>
       <c r="K257" t="s">
         <v>46</v>
       </c>
@@ -10052,7 +11753,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>404</v>
       </c>
@@ -10062,11 +11763,32 @@
       <c r="C258" s="2">
         <v>43466</v>
       </c>
+      <c r="D258" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>47</v>
+      </c>
+      <c r="I258">
+        <v>47</v>
+      </c>
+      <c r="J258">
+        <v>1968</v>
+      </c>
       <c r="M258" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>405</v>
       </c>
@@ -10088,11 +11810,20 @@
       <c r="G259">
         <v>1</v>
       </c>
+      <c r="H259">
+        <v>82</v>
+      </c>
+      <c r="I259">
+        <v>47</v>
+      </c>
+      <c r="J259">
+        <v>2018</v>
+      </c>
       <c r="M259" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>406</v>
       </c>
@@ -10102,8 +11833,26 @@
       <c r="C260" s="2">
         <v>43466</v>
       </c>
+      <c r="D260" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>3</v>
+      </c>
       <c r="H260">
-        <v>407</v>
+        <v>180</v>
+      </c>
+      <c r="I260">
+        <v>72</v>
+      </c>
+      <c r="J260">
+        <v>1920</v>
       </c>
       <c r="K260" t="s">
         <v>83</v>
@@ -10115,7 +11864,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>408</v>
       </c>
@@ -10125,8 +11874,26 @@
       <c r="C261" s="2">
         <v>43466</v>
       </c>
+      <c r="D261" t="s">
+        <v>14</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
       <c r="H261" s="3">
-        <v>6268</v>
+        <v>67</v>
+      </c>
+      <c r="I261">
+        <v>67</v>
+      </c>
+      <c r="J261">
+        <v>1978</v>
       </c>
       <c r="K261" t="s">
         <v>409</v>
@@ -10138,7 +11905,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>410</v>
       </c>
@@ -10160,6 +11927,15 @@
       <c r="G262">
         <v>1</v>
       </c>
+      <c r="H262">
+        <v>101</v>
+      </c>
+      <c r="I262">
+        <v>73</v>
+      </c>
+      <c r="J262">
+        <v>2000</v>
+      </c>
       <c r="K262" t="s">
         <v>83</v>
       </c>
@@ -10170,7 +11946,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>411</v>
       </c>
@@ -10195,11 +11971,17 @@
       <c r="H263">
         <v>151</v>
       </c>
+      <c r="I263">
+        <v>100</v>
+      </c>
+      <c r="J263">
+        <v>2000</v>
+      </c>
       <c r="M263" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>413</v>
       </c>
@@ -10209,12 +11991,27 @@
       <c r="C264" s="2">
         <v>43466</v>
       </c>
+      <c r="D264" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <v>2</v>
+      </c>
       <c r="H264">
         <v>141</v>
       </c>
       <c r="I264">
         <v>87</v>
       </c>
+      <c r="J264">
+        <v>2008</v>
+      </c>
       <c r="K264" t="s">
         <v>414</v>
       </c>
@@ -10222,7 +12019,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>415</v>
       </c>
@@ -10245,13 +12042,19 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>62</v>
+        <v>83</v>
+      </c>
+      <c r="I265">
+        <v>47</v>
+      </c>
+      <c r="J265">
+        <v>2018</v>
       </c>
       <c r="M265" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>416</v>
       </c>
@@ -10273,6 +12076,15 @@
       <c r="G266">
         <v>1</v>
       </c>
+      <c r="H266">
+        <v>40</v>
+      </c>
+      <c r="I266">
+        <v>40</v>
+      </c>
+      <c r="J266">
+        <v>1970</v>
+      </c>
       <c r="K266" t="s">
         <v>161</v>
       </c>
@@ -10283,7 +12095,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>417</v>
       </c>
@@ -10306,13 +12118,19 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>330</v>
+        <v>347</v>
+      </c>
+      <c r="I267">
+        <v>118</v>
+      </c>
+      <c r="J267">
+        <v>1920</v>
       </c>
       <c r="M267" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>419</v>
       </c>
@@ -10338,7 +12156,10 @@
         <v>121</v>
       </c>
       <c r="I268">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="J268">
+        <v>2001</v>
       </c>
       <c r="K268" t="s">
         <v>83</v>
@@ -10350,7 +12171,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>420</v>
       </c>
@@ -10372,6 +12193,15 @@
       <c r="G269">
         <v>1</v>
       </c>
+      <c r="H269">
+        <v>101</v>
+      </c>
+      <c r="I269">
+        <v>72</v>
+      </c>
+      <c r="J269">
+        <v>2005</v>
+      </c>
       <c r="K269" t="s">
         <v>98</v>
       </c>
@@ -10379,7 +12209,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>421</v>
       </c>
@@ -10389,6 +12219,27 @@
       <c r="C270" s="2">
         <v>43435</v>
       </c>
+      <c r="D270" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>34</v>
+      </c>
+      <c r="I270">
+        <v>34</v>
+      </c>
+      <c r="J270">
+        <v>1945</v>
+      </c>
       <c r="K270" t="s">
         <v>40</v>
       </c>
@@ -10399,7 +12250,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>423</v>
       </c>
@@ -10421,8 +12272,17 @@
       <c r="G271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H271">
+        <v>103</v>
+      </c>
+      <c r="I271">
+        <v>74</v>
+      </c>
+      <c r="J271">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>424</v>
       </c>
@@ -10444,6 +12304,15 @@
       <c r="G272">
         <v>1</v>
       </c>
+      <c r="H272">
+        <v>75</v>
+      </c>
+      <c r="I272">
+        <v>47</v>
+      </c>
+      <c r="J272">
+        <v>2017</v>
+      </c>
       <c r="K272" t="s">
         <v>83</v>
       </c>
@@ -10454,7 +12323,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>425</v>
       </c>
@@ -10477,7 +12346,13 @@
         <v>1</v>
       </c>
       <c r="H273" s="3">
-        <v>3365</v>
+        <v>68</v>
+      </c>
+      <c r="I273">
+        <v>60</v>
+      </c>
+      <c r="J273">
+        <v>2011</v>
       </c>
       <c r="K273" t="s">
         <v>221</v>
@@ -10486,7 +12361,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>426</v>
       </c>
@@ -10509,7 +12384,13 @@
         <v>2</v>
       </c>
       <c r="H274">
-        <v>202</v>
+        <v>135</v>
+      </c>
+      <c r="I274">
+        <v>142</v>
+      </c>
+      <c r="J274">
+        <v>2004</v>
       </c>
       <c r="K274" t="s">
         <v>98</v>
@@ -10521,7 +12402,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>428</v>
       </c>
@@ -10546,6 +12427,12 @@
       <c r="H275">
         <v>229</v>
       </c>
+      <c r="I275">
+        <v>95</v>
+      </c>
+      <c r="J275">
+        <v>1920</v>
+      </c>
       <c r="K275" t="s">
         <v>46</v>
       </c>
@@ -10556,7 +12443,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>429</v>
       </c>
@@ -10579,10 +12466,13 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>510</v>
+        <v>209</v>
       </c>
       <c r="I276">
-        <v>163</v>
+        <v>147</v>
+      </c>
+      <c r="J276">
+        <v>1998</v>
       </c>
       <c r="K276" t="s">
         <v>69</v>
@@ -10594,7 +12484,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>430</v>
       </c>
@@ -10617,7 +12507,10 @@
         <v>2</v>
       </c>
       <c r="H277">
-        <v>391</v>
+        <v>410</v>
+      </c>
+      <c r="J277">
+        <v>1950</v>
       </c>
       <c r="K277" t="s">
         <v>159</v>
@@ -10629,7 +12522,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>432</v>
       </c>
@@ -10652,10 +12545,13 @@
         <v>2</v>
       </c>
       <c r="H278">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I278">
-        <v>309</v>
+        <v>132</v>
+      </c>
+      <c r="J278">
+        <v>2012</v>
       </c>
       <c r="K278" t="s">
         <v>433</v>
@@ -10667,7 +12563,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>435</v>
       </c>
@@ -10690,10 +12586,13 @@
         <v>2</v>
       </c>
       <c r="H279" s="3">
-        <v>1013</v>
+        <v>122</v>
       </c>
       <c r="I279">
-        <v>128</v>
+        <v>149</v>
+      </c>
+      <c r="J279">
+        <v>2005</v>
       </c>
       <c r="K279" t="s">
         <v>436</v>
@@ -10705,7 +12604,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>437</v>
       </c>
@@ -10730,6 +12629,12 @@
       <c r="H280">
         <v>516</v>
       </c>
+      <c r="I280">
+        <v>142</v>
+      </c>
+      <c r="J280">
+        <v>1918</v>
+      </c>
       <c r="K280" t="s">
         <v>159</v>
       </c>
@@ -10740,7 +12645,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>439</v>
       </c>
@@ -10766,7 +12671,10 @@
         <v>131</v>
       </c>
       <c r="I281">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="J281">
+        <v>1995</v>
       </c>
       <c r="K281" t="s">
         <v>83</v>
@@ -10778,7 +12686,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>441</v>
       </c>
@@ -10801,7 +12709,13 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="I282">
+        <v>47</v>
+      </c>
+      <c r="J282">
+        <v>2018</v>
       </c>
       <c r="K282" t="s">
         <v>442</v>
@@ -10813,7 +12727,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>443</v>
       </c>
@@ -10836,11 +12750,14 @@
         <v>2</v>
       </c>
       <c r="H283" s="3">
-        <v>3242</v>
+        <v>164</v>
       </c>
       <c r="I283">
         <v>126</v>
       </c>
+      <c r="J283">
+        <v>2006</v>
+      </c>
       <c r="K283" t="s">
         <v>112</v>
       </c>
@@ -10851,7 +12768,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>444</v>
       </c>
@@ -10870,9 +12787,18 @@
       <c r="F284">
         <v>1</v>
       </c>
+      <c r="G284">
+        <v>2</v>
+      </c>
       <c r="H284">
         <v>224</v>
       </c>
+      <c r="I284">
+        <v>121</v>
+      </c>
+      <c r="J284">
+        <v>1930</v>
+      </c>
       <c r="K284" t="s">
         <v>110</v>
       </c>
@@ -10883,7 +12809,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>446</v>
       </c>
@@ -10906,7 +12832,13 @@
         <v>2</v>
       </c>
       <c r="H285">
+        <v>157</v>
+      </c>
+      <c r="I285">
         <v>115</v>
+      </c>
+      <c r="J285">
+        <v>1995</v>
       </c>
       <c r="K285" t="s">
         <v>69</v>
@@ -10918,7 +12850,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>448</v>
       </c>
@@ -10946,6 +12878,9 @@
       <c r="I286">
         <v>82</v>
       </c>
+      <c r="J286">
+        <v>2003</v>
+      </c>
       <c r="K286" t="s">
         <v>449</v>
       </c>
@@ -10956,7 +12891,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>450</v>
       </c>
@@ -10966,12 +12901,27 @@
       <c r="C287" s="2">
         <v>43374</v>
       </c>
+      <c r="D287" t="s">
+        <v>14</v>
+      </c>
+      <c r="E287">
+        <v>3</v>
+      </c>
+      <c r="F287">
+        <v>2</v>
+      </c>
+      <c r="G287">
+        <v>2</v>
+      </c>
       <c r="H287">
         <v>151</v>
       </c>
       <c r="I287">
         <v>101</v>
       </c>
+      <c r="J287">
+        <v>2004</v>
+      </c>
       <c r="K287" t="s">
         <v>311</v>
       </c>
@@ -10982,7 +12932,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>451</v>
       </c>
@@ -11004,11 +12954,20 @@
       <c r="G288">
         <v>1</v>
       </c>
+      <c r="H288">
+        <v>82</v>
+      </c>
+      <c r="I288">
+        <v>47</v>
+      </c>
+      <c r="J288">
+        <v>2018</v>
+      </c>
       <c r="M288" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>452</v>
       </c>
@@ -11031,7 +12990,13 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>902</v>
+        <v>100</v>
+      </c>
+      <c r="I289">
+        <v>73</v>
+      </c>
+      <c r="J289">
+        <v>2000</v>
       </c>
       <c r="K289" t="s">
         <v>247</v>
@@ -11043,7 +13008,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>454</v>
       </c>
@@ -11053,6 +13018,27 @@
       <c r="C290" s="2">
         <v>43374</v>
       </c>
+      <c r="D290" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>42</v>
+      </c>
+      <c r="I290">
+        <v>40</v>
+      </c>
+      <c r="J290">
+        <v>1970</v>
+      </c>
       <c r="K290" t="s">
         <v>355</v>
       </c>
@@ -11063,7 +13049,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>455</v>
       </c>
@@ -11085,6 +13071,15 @@
       <c r="G291">
         <v>1</v>
       </c>
+      <c r="H291">
+        <v>108</v>
+      </c>
+      <c r="I291">
+        <v>80</v>
+      </c>
+      <c r="J291">
+        <v>2007</v>
+      </c>
       <c r="K291" t="s">
         <v>254</v>
       </c>
@@ -11095,7 +13090,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>457</v>
       </c>
@@ -11118,11 +13113,14 @@
         <v>1</v>
       </c>
       <c r="H292" s="3">
-        <v>3242</v>
+        <v>146</v>
       </c>
       <c r="I292">
         <v>80</v>
       </c>
+      <c r="J292">
+        <v>2006</v>
+      </c>
       <c r="K292" t="s">
         <v>29</v>
       </c>
@@ -11133,7 +13131,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>459</v>
       </c>
@@ -11146,11 +13144,26 @@
       <c r="D293" t="s">
         <v>14</v>
       </c>
+      <c r="E293">
+        <v>3</v>
+      </c>
+      <c r="F293">
+        <v>3</v>
+      </c>
+      <c r="G293">
+        <v>2</v>
+      </c>
       <c r="H293">
         <v>201</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <v>136</v>
+      </c>
+      <c r="J293">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>460</v>
       </c>
@@ -11175,6 +13188,12 @@
       <c r="H294">
         <v>120</v>
       </c>
+      <c r="I294">
+        <v>80</v>
+      </c>
+      <c r="J294">
+        <v>2015</v>
+      </c>
       <c r="K294" t="s">
         <v>49</v>
       </c>
@@ -11185,7 +13204,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>461</v>
       </c>
@@ -11211,7 +13230,10 @@
         <v>350</v>
       </c>
       <c r="I295">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="J295">
+        <v>1910</v>
       </c>
       <c r="K295" t="s">
         <v>311</v>
@@ -11223,7 +13245,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>462</v>
       </c>
@@ -11251,6 +13273,9 @@
       <c r="I296">
         <v>70</v>
       </c>
+      <c r="J296">
+        <v>2010</v>
+      </c>
       <c r="K296" t="s">
         <v>44</v>
       </c>
@@ -11261,7 +13286,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>464</v>
       </c>
@@ -11284,13 +13309,19 @@
         <v>1</v>
       </c>
       <c r="H297" s="3">
-        <v>2233</v>
+        <v>73</v>
+      </c>
+      <c r="I297">
+        <v>73</v>
+      </c>
+      <c r="J297">
+        <v>1977</v>
       </c>
       <c r="M297" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>466</v>
       </c>
@@ -11300,12 +13331,27 @@
       <c r="C298" s="2">
         <v>43313</v>
       </c>
+      <c r="D298" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>2</v>
+      </c>
+      <c r="G298">
+        <v>2</v>
+      </c>
       <c r="H298">
         <v>120</v>
       </c>
       <c r="I298">
         <v>76</v>
       </c>
+      <c r="J298">
+        <v>2010</v>
+      </c>
       <c r="K298" t="s">
         <v>144</v>
       </c>
@@ -11316,7 +13362,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>468</v>
       </c>
@@ -11344,6 +13390,9 @@
       <c r="I299">
         <v>101</v>
       </c>
+      <c r="J299">
+        <v>2004</v>
+      </c>
       <c r="K299" t="s">
         <v>24</v>
       </c>
@@ -11354,7 +13403,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>469</v>
       </c>
@@ -11377,16 +13426,19 @@
         <v>2</v>
       </c>
       <c r="H300">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="I300">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="J300">
+        <v>2005</v>
       </c>
       <c r="M300" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>470</v>
       </c>
@@ -11407,6 +13459,15 @@
       </c>
       <c r="G301">
         <v>1</v>
+      </c>
+      <c r="H301">
+        <v>114</v>
+      </c>
+      <c r="I301">
+        <v>77</v>
+      </c>
+      <c r="J301">
+        <v>2018</v>
       </c>
       <c r="M301" t="s">
         <v>471</v>

--- a/data/WestPerth_suburb_properties.xlsx
+++ b/data/WestPerth_suburb_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haleh\DA\Projects\Project-3\Project3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C51AB7-AC4C-4EBD-B7A6-458E8A7F01A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F9709D-1D3A-4E74-9322-494486A6802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36015" yWindow="-1695" windowWidth="14625" windowHeight="15765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2293,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="J301" sqref="J301"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2561,6 +2561,12 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>111</v>
+      </c>
+      <c r="I7">
+        <v>74</v>
+      </c>
       <c r="J7">
         <v>2018</v>
       </c>
@@ -2632,7 +2638,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <v>2789</v>
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
       </c>
       <c r="J9">
         <v>1976</v>
@@ -2661,7 +2670,10 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1792</v>
+        <v>156</v>
+      </c>
+      <c r="I10">
+        <v>82</v>
       </c>
       <c r="J10">
         <v>1991</v>
@@ -2765,6 +2777,9 @@
       <c r="H13">
         <v>105</v>
       </c>
+      <c r="I13">
+        <v>91</v>
+      </c>
       <c r="J13">
         <v>1997</v>
       </c>
@@ -2801,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>3421</v>
+        <v>42</v>
       </c>
       <c r="I14">
         <v>40</v>
@@ -2874,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>719</v>
+        <v>117</v>
       </c>
       <c r="I16">
         <v>51</v>
@@ -2914,6 +2929,9 @@
       <c r="H17">
         <v>74</v>
       </c>
+      <c r="I17">
+        <v>74</v>
+      </c>
       <c r="J17">
         <v>2014</v>
       </c>
@@ -3212,6 +3230,9 @@
       <c r="H25">
         <v>54</v>
       </c>
+      <c r="I25">
+        <v>36</v>
+      </c>
       <c r="J25">
         <v>1969</v>
       </c>
@@ -3247,6 +3268,12 @@
       <c r="G26">
         <v>1</v>
       </c>
+      <c r="H26">
+        <v>123</v>
+      </c>
+      <c r="I26">
+        <v>97</v>
+      </c>
       <c r="J26">
         <v>2001</v>
       </c>
@@ -3309,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>2266</v>
+        <v>93</v>
       </c>
       <c r="I28">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="J28">
         <v>2005</v>
@@ -3391,10 +3418,10 @@
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>3579</v>
+        <v>108</v>
       </c>
       <c r="I30">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J30">
         <v>2002</v>
@@ -3472,6 +3499,9 @@
       <c r="H32">
         <v>195</v>
       </c>
+      <c r="I32">
+        <v>141</v>
+      </c>
       <c r="J32">
         <v>1915</v>
       </c>
@@ -3539,6 +3569,9 @@
       <c r="H34">
         <v>234</v>
       </c>
+      <c r="I34">
+        <v>117</v>
+      </c>
       <c r="J34">
         <v>1998</v>
       </c>
@@ -3645,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>1876</v>
+        <v>99</v>
       </c>
       <c r="I37">
         <v>68</v>
@@ -3764,6 +3797,9 @@
       <c r="H40">
         <v>78</v>
       </c>
+      <c r="I40">
+        <v>51</v>
+      </c>
       <c r="J40">
         <v>2016</v>
       </c>
@@ -3800,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="3">
-        <v>2189</v>
+        <v>88</v>
       </c>
       <c r="I41">
         <v>66</v>
@@ -3951,6 +3987,9 @@
       <c r="H45">
         <v>79</v>
       </c>
+      <c r="I45">
+        <v>57</v>
+      </c>
       <c r="J45">
         <v>2001</v>
       </c>
@@ -4138,6 +4177,9 @@
       <c r="H50">
         <v>312</v>
       </c>
+      <c r="I50">
+        <v>124</v>
+      </c>
       <c r="J50">
         <v>1994</v>
       </c>
@@ -4208,8 +4250,11 @@
       <c r="G52">
         <v>2</v>
       </c>
+      <c r="H52">
+        <v>161</v>
+      </c>
       <c r="I52">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="J52">
         <v>2003</v>
@@ -4249,6 +4294,9 @@
       <c r="H53">
         <v>79</v>
       </c>
+      <c r="I53">
+        <v>60</v>
+      </c>
       <c r="J53">
         <v>1976</v>
       </c>
@@ -4275,6 +4323,9 @@
       <c r="G54">
         <v>2</v>
       </c>
+      <c r="H54">
+        <v>121</v>
+      </c>
       <c r="I54">
         <v>91</v>
       </c>
@@ -4313,6 +4364,9 @@
       <c r="G55">
         <v>1</v>
       </c>
+      <c r="H55">
+        <v>75</v>
+      </c>
       <c r="I55">
         <v>75</v>
       </c>
@@ -4395,6 +4449,9 @@
       <c r="H57">
         <v>152</v>
       </c>
+      <c r="I57">
+        <v>89</v>
+      </c>
       <c r="J57">
         <v>2016</v>
       </c>
@@ -4422,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="3">
-        <v>3365</v>
+        <v>68</v>
       </c>
       <c r="I58">
         <v>41</v>
@@ -4497,8 +4554,11 @@
       <c r="G60">
         <v>2</v>
       </c>
+      <c r="H60" s="3">
+        <v>199</v>
+      </c>
       <c r="I60">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="J60">
         <v>2020</v>
@@ -4568,7 +4628,7 @@
         <v>783</v>
       </c>
       <c r="I62">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="J62">
         <v>1930</v>
@@ -4605,6 +4665,9 @@
       <c r="G63">
         <v>1</v>
       </c>
+      <c r="H63">
+        <v>42</v>
+      </c>
       <c r="I63">
         <v>40</v>
       </c>
@@ -4792,6 +4855,9 @@
       <c r="H68">
         <v>890</v>
       </c>
+      <c r="I68">
+        <v>105</v>
+      </c>
       <c r="J68">
         <v>1920</v>
       </c>
@@ -4895,7 +4961,10 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>50</v>
+        <v>105</v>
+      </c>
+      <c r="I71">
+        <v>78</v>
       </c>
       <c r="J71">
         <v>1940</v>
@@ -4926,6 +4995,15 @@
       <c r="G72">
         <v>2</v>
       </c>
+      <c r="H72">
+        <v>127</v>
+      </c>
+      <c r="I72">
+        <v>156</v>
+      </c>
+      <c r="J72">
+        <v>2020</v>
+      </c>
       <c r="M72" t="s">
         <v>147</v>
       </c>
@@ -4952,6 +5030,15 @@
       <c r="G73">
         <v>2</v>
       </c>
+      <c r="H73">
+        <v>118</v>
+      </c>
+      <c r="I73">
+        <v>143</v>
+      </c>
+      <c r="J73">
+        <v>2020</v>
+      </c>
       <c r="M73" t="s">
         <v>147</v>
       </c>
@@ -5052,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="3">
-        <v>2233</v>
+        <v>73</v>
       </c>
       <c r="I76">
         <v>73</v>
@@ -5127,8 +5214,11 @@
       <c r="G78">
         <v>1</v>
       </c>
+      <c r="H78">
+        <v>42</v>
+      </c>
       <c r="I78">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1968</v>
@@ -5168,6 +5258,12 @@
       <c r="H79">
         <v>149</v>
       </c>
+      <c r="I79">
+        <v>99</v>
+      </c>
+      <c r="J79">
+        <v>2007</v>
+      </c>
       <c r="K79" t="s">
         <v>159</v>
       </c>
@@ -5201,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="3">
-        <v>3424</v>
+        <v>42</v>
       </c>
       <c r="I80">
         <v>40</v>
@@ -5242,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>813</v>
+        <v>70</v>
       </c>
       <c r="I81">
         <v>70</v>
@@ -5318,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="3">
-        <v>6092</v>
+        <v>111</v>
       </c>
       <c r="I83">
         <v>83</v>
@@ -5397,7 +5493,10 @@
         <v>1</v>
       </c>
       <c r="H85" s="3">
-        <v>7688</v>
+        <v>41</v>
+      </c>
+      <c r="I85">
+        <v>41</v>
       </c>
       <c r="J85">
         <v>1968</v>
@@ -5466,8 +5565,11 @@
       <c r="G87">
         <v>2</v>
       </c>
+      <c r="H87" s="3">
+        <v>127</v>
+      </c>
       <c r="I87">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="J87">
         <v>2020</v>
@@ -5498,6 +5600,9 @@
       <c r="G88">
         <v>1</v>
       </c>
+      <c r="H88">
+        <v>47</v>
+      </c>
       <c r="I88">
         <v>47</v>
       </c>
@@ -5600,6 +5705,9 @@
       <c r="H91">
         <v>402</v>
       </c>
+      <c r="I91">
+        <v>119</v>
+      </c>
       <c r="J91">
         <v>1920</v>
       </c>
@@ -5740,6 +5848,9 @@
       <c r="G95">
         <v>0</v>
       </c>
+      <c r="H95">
+        <v>201</v>
+      </c>
       <c r="I95">
         <v>72</v>
       </c>
@@ -5778,6 +5889,9 @@
       <c r="G96">
         <v>1</v>
       </c>
+      <c r="H96">
+        <v>83</v>
+      </c>
       <c r="I96">
         <v>53</v>
       </c>
@@ -5816,6 +5930,9 @@
       <c r="H97">
         <v>130</v>
       </c>
+      <c r="I97">
+        <v>80</v>
+      </c>
       <c r="J97">
         <v>2020</v>
       </c>
@@ -5843,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="3">
-        <v>7674</v>
+        <v>46</v>
       </c>
       <c r="I98">
         <v>46</v>
@@ -5919,7 +6036,10 @@
         <v>1</v>
       </c>
       <c r="H100" s="3">
-        <v>1123</v>
+        <v>86</v>
+      </c>
+      <c r="I100">
+        <v>57</v>
       </c>
       <c r="J100">
         <v>1998</v>
@@ -5950,6 +6070,9 @@
       <c r="H101">
         <v>379</v>
       </c>
+      <c r="I101">
+        <v>239</v>
+      </c>
       <c r="J101">
         <v>2020</v>
       </c>
@@ -6053,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="3">
-        <v>7674</v>
+        <v>47</v>
       </c>
       <c r="I104">
         <v>47</v>
@@ -9344,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="H194" s="3">
-        <v>3422</v>
+        <v>42</v>
       </c>
       <c r="I194">
         <v>40</v>
@@ -9531,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="H199" s="3">
-        <v>1012</v>
+        <v>159</v>
       </c>
       <c r="I199">
         <v>109</v>
@@ -11162,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="H242" s="3">
-        <v>1005</v>
+        <v>105</v>
       </c>
       <c r="I242">
         <v>84</v>
